--- a/Income Data/Combined_Income.xlsx
+++ b/Income Data/Combined_Income.xlsx
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:E681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
